--- a/Excel-XLSX/UN-MNG.xlsx
+++ b/Excel-XLSX/UN-MNG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,220 @@
     <t>1</t>
   </si>
   <si>
-    <t>0tEr4n</t>
+    <t>bg2WCx</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>MNG</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NIG</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
   </si>
   <si>
     <t>2005</t>
@@ -105,252 +318,45 @@
     <t>XXA</t>
   </si>
   <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>MNG</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>581</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>CHN</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2007</t>
+    <t>38</t>
   </si>
   <si>
     <t>75</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>39</t>
   </si>
   <si>
     <t>358</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>40</t>
   </si>
   <si>
     <t>373</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>41</t>
   </si>
   <si>
     <t>260</t>
   </si>
   <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>42</t>
   </si>
   <si>
     <t>292</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>AFG</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
+    <t>43</t>
   </si>
   <si>
     <t>220</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>NIG</t>
-  </si>
-  <si>
-    <t>NGA</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
@@ -360,9 +366,6 @@
     <t>46</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>47</t>
   </si>
   <si>
@@ -370,6 +373,18 @@
   </si>
   <si>
     <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
   </si>
 </sst>
 </file>
@@ -754,7 +769,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -856,46 +871,46 @@
         <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -909,61 +924,61 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -977,7 +992,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>36</v>
@@ -992,46 +1007,46 @@
         <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -1045,61 +1060,61 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -1113,10 +1128,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>25</v>
@@ -1128,46 +1143,46 @@
         <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -1181,61 +1196,61 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1249,10 +1264,10 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>25</v>
@@ -1264,46 +1279,46 @@
         <v>27</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1317,61 +1332,61 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -1385,10 +1400,10 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>25</v>
@@ -1400,46 +1415,46 @@
         <v>27</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -1453,61 +1468,61 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -1521,34 +1536,34 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>32</v>
@@ -1557,25 +1572,25 @@
         <v>32</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -1589,61 +1604,61 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -1657,61 +1672,61 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -1725,61 +1740,61 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -1793,61 +1808,61 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -1861,61 +1876,61 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -1929,61 +1944,61 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -1997,61 +2012,61 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -2065,61 +2080,61 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
@@ -2133,61 +2148,61 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -2201,61 +2216,61 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -2269,61 +2284,61 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -2337,61 +2352,61 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -2405,61 +2420,61 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
@@ -2473,61 +2488,61 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -2541,61 +2556,61 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="T27" s="2" t="s">
         <v>32</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -2609,61 +2624,61 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -2677,61 +2692,61 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -2745,61 +2760,61 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -2813,61 +2828,61 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32">
@@ -2881,61 +2896,61 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="U32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -2949,61 +2964,61 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="U33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
@@ -3017,61 +3032,61 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -3085,61 +3100,61 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -3153,61 +3168,61 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>32</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -3221,61 +3236,61 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="J37" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38">
@@ -3289,61 +3304,61 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39">
@@ -3357,61 +3372,61 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S39" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="T39" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40">
@@ -3425,61 +3440,61 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S40" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="T40" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41">
@@ -3496,58 +3511,58 @@
         <v>105</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S41" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S41" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="T41" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -3564,58 +3579,58 @@
         <v>107</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43">
@@ -3629,61 +3644,61 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44">
@@ -3697,61 +3712,61 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45">
@@ -3765,61 +3780,61 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46">
@@ -3833,61 +3848,61 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47">
@@ -3901,61 +3916,61 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48">
@@ -3969,61 +3984,61 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49">
@@ -4037,61 +4052,61 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50">
@@ -4105,61 +4120,333 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V53" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V54" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-MNG.xlsx
+++ b/Excel-XLSX/UN-MNG.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>bg2WCx</t>
+    <t>RC21ck</t>
   </si>
   <si>
     <t>2012</t>
@@ -909,8 +909,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+      <c r="V2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -977,8 +977,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
+      <c r="V3" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -1045,8 +1045,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
+      <c r="V4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -1113,8 +1113,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
+      <c r="V5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -1181,8 +1181,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>33</v>
+      <c r="V6" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -1249,8 +1249,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>33</v>
+      <c r="V7" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -1317,8 +1317,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>33</v>
+      <c r="V8" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -1521,8 +1521,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>33</v>
+      <c r="V11" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -1589,8 +1589,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>33</v>
+      <c r="V12" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -1657,8 +1657,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
+      <c r="V13" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -1725,8 +1725,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>33</v>
+      <c r="V14" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -1793,8 +1793,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>33</v>
+      <c r="V15" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -1861,8 +1861,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
+      <c r="V16" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -1929,8 +1929,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>33</v>
+      <c r="V17" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -1997,8 +1997,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
+      <c r="V18" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -2065,8 +2065,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
+      <c r="V19" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -2133,8 +2133,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>33</v>
+      <c r="V20" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -2201,8 +2201,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>33</v>
+      <c r="V21" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22">
@@ -2269,8 +2269,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>33</v>
+      <c r="V22" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23">
@@ -2337,8 +2337,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>33</v>
+      <c r="V23" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24">
@@ -2405,8 +2405,8 @@
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>33</v>
+      <c r="V24" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -2609,8 +2609,8 @@
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>33</v>
+      <c r="V27" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -2677,8 +2677,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>33</v>
+      <c r="V28" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -2745,8 +2745,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>33</v>
+      <c r="V29" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30">
@@ -2813,8 +2813,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>33</v>
+      <c r="V30" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -2881,8 +2881,8 @@
       <c r="U31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>33</v>
+      <c r="V31" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -3085,8 +3085,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>33</v>
+      <c r="V34" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -3153,8 +3153,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>33</v>
+      <c r="V35" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36">
@@ -3221,8 +3221,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>33</v>
+      <c r="V36" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37">
@@ -3289,8 +3289,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>33</v>
+      <c r="V37" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38">
@@ -3357,8 +3357,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>33</v>
+      <c r="V38" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39">
@@ -3425,8 +3425,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>33</v>
+      <c r="V39" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="40">
@@ -3493,8 +3493,8 @@
       <c r="U40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>33</v>
+      <c r="V40" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="41">
@@ -3561,8 +3561,8 @@
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>33</v>
+      <c r="V41" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="42">
@@ -3629,8 +3629,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>33</v>
+      <c r="V42" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43">
@@ -3697,8 +3697,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>33</v>
+      <c r="V43" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44">
@@ -3765,8 +3765,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>33</v>
+      <c r="V44" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45">
@@ -3833,8 +3833,8 @@
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>33</v>
+      <c r="V45" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="46">
@@ -3901,8 +3901,8 @@
       <c r="U46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>33</v>
+      <c r="V46" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="47">
@@ -3969,8 +3969,8 @@
       <c r="U47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>33</v>
+      <c r="V47" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48">
@@ -4037,8 +4037,8 @@
       <c r="U48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>33</v>
+      <c r="V48" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="49">
@@ -4105,8 +4105,8 @@
       <c r="U49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>33</v>
+      <c r="V49" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="50">
@@ -4173,8 +4173,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>33</v>
+      <c r="V50" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="51">
@@ -4241,8 +4241,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>33</v>
+      <c r="V51" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="52">
@@ -4309,8 +4309,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>33</v>
+      <c r="V52" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="53">

--- a/Excel-XLSX/UN-MNG.xlsx
+++ b/Excel-XLSX/UN-MNG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -90,294 +90,294 @@
     <t>RC21ck</t>
   </si>
   <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Stateless</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>XXA</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>MNG</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>581</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>2012</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Afghanistan</t>
   </si>
   <si>
     <t>AFG</t>
   </si>
   <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>MNG</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>2015</t>
   </si>
   <si>
-    <t>3</t>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NIG</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
   <si>
     <t>2016</t>
   </si>
   <si>
-    <t>4</t>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>2017</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>2018</t>
   </si>
   <si>
-    <t>6</t>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
   <si>
     <t>2020</t>
   </si>
   <si>
-    <t>7</t>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
   </si>
   <si>
     <t>2021</t>
   </si>
   <si>
-    <t>8</t>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
   </si>
   <si>
     <t>2022</t>
   </si>
   <si>
-    <t>9</t>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
   <si>
     <t>2023</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>CHN</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>NIG</t>
-  </si>
-  <si>
-    <t>NGA</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Stateless</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>XXA</t>
-  </si>
-  <si>
-    <t>581</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>358</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>373</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>292</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>51</t>
   </si>
   <si>
@@ -385,6 +385,21 @@
   </si>
   <si>
     <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
   </si>
 </sst>
 </file>
@@ -769,7 +784,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -871,46 +886,46 @@
         <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -924,61 +939,61 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -992,7 +1007,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>36</v>
@@ -1007,46 +1022,46 @@
         <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1060,61 +1075,61 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1128,10 +1143,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>25</v>
@@ -1143,46 +1158,46 @@
         <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1196,61 +1211,61 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1264,10 +1279,10 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>25</v>
@@ -1279,46 +1294,46 @@
         <v>27</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1332,61 +1347,61 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1400,10 +1415,10 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>25</v>
@@ -1415,46 +1430,46 @@
         <v>27</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1468,61 +1483,61 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -1536,34 +1551,34 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>32</v>
@@ -1572,25 +1587,25 @@
         <v>32</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -1604,61 +1619,61 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -1672,61 +1687,61 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -1740,61 +1755,61 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -1808,61 +1823,61 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -1876,61 +1891,61 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -1944,61 +1959,61 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="O18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -2012,61 +2027,61 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="T19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -2080,61 +2095,61 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -2148,61 +2163,61 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -2216,61 +2231,61 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -2284,61 +2299,61 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -2352,61 +2367,61 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="O24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -2420,61 +2435,61 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -2488,61 +2503,61 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -2556,61 +2571,61 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="J27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="T27" s="2" t="s">
         <v>32</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -2624,61 +2639,61 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -2692,61 +2707,61 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -2760,61 +2775,61 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="J30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -2828,61 +2843,61 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -2896,61 +2911,61 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -2964,61 +2979,61 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -3032,61 +3047,61 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -3100,61 +3115,61 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -3168,61 +3183,61 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>32</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -3236,61 +3251,61 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -3304,61 +3319,61 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -3372,61 +3387,61 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="U39" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -3440,61 +3455,61 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -3511,58 +3526,58 @@
         <v>105</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
@@ -3579,58 +3594,58 @@
         <v>107</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -3644,61 +3659,61 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44">
@@ -3712,61 +3727,61 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
@@ -3780,61 +3795,61 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
@@ -3848,61 +3863,61 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47">
@@ -3916,61 +3931,61 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -3984,61 +3999,61 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -4052,61 +4067,61 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50">
@@ -4120,61 +4135,61 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -4188,61 +4203,61 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52">
@@ -4259,58 +4274,58 @@
         <v>120</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -4327,58 +4342,58 @@
         <v>121</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54">
@@ -4395,58 +4410,330 @@
         <v>122</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="J54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V54" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V55" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V56" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V57" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S54" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="T54" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V54" s="2" t="s">
-        <v>31</v>
+      <c r="J58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-MNG.xlsx
+++ b/Excel-XLSX/UN-MNG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>RC21ck</t>
+    <t>CRj7iZ</t>
   </si>
   <si>
     <t>2005</t>
@@ -399,7 +399,19 @@
     <t>56</t>
   </si>
   <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
     <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
   </si>
 </sst>
 </file>
@@ -784,7 +796,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -4505,10 +4517,10 @@
         <v>31</v>
       </c>
       <c r="N55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O55" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>32</v>
@@ -4576,7 +4588,7 @@
         <v>41</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>32</v>
@@ -4617,16 +4629,16 @@
         <v>124</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>29</v>
@@ -4644,7 +4656,7 @@
         <v>32</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>32</v>
@@ -4659,7 +4671,7 @@
         <v>32</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="U57" s="1" t="s">
         <v>34</v>
@@ -4679,60 +4691,128 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>124</v>
       </c>
       <c r="F58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V58" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S58" s="2" t="s">
+      <c r="J59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S59" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="T58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U58" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V58" s="2" t="s">
+      <c r="T59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V59" s="2" t="s">
         <v>32</v>
       </c>
     </row>
